--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="593">
   <si>
     <t>Open</t>
   </si>
@@ -2163,9 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3668,21 +3666,24 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>590</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s">
         <v>590</v>
       </c>
       <c r="C73" t="s">
+        <v>590</v>
+      </c>
+      <c r="D73" t="s">
         <v>591</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>592</v>
       </c>
-      <c r="E73" t="s">
-        <v>0</v>
-      </c>
       <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
         <v>511</v>
       </c>
     </row>
@@ -3744,6 +3745,9 @@
       </c>
       <c r="E76" t="s">
         <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="635">
   <si>
     <t>Open</t>
   </si>
@@ -1903,6 +1903,27 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/home/szj</t>
+  </si>
+  <si>
+    <t>The Finnish Surgical Society</t>
+  </si>
+  <si>
+    <t>1799-7267</t>
+  </si>
+  <si>
+    <t>1457-4969</t>
+  </si>
+  <si>
+    <t>Scandinavian Journal of Surgery</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/SJS</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
   </si>
 </sst>
 </file>
@@ -1953,124 +1974,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2102,23 +2022,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2133,10 +2036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G183" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:G183"/>
-  <sortState ref="A2:G183">
-    <sortCondition ref="D1:D183"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G184" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G184"/>
+  <sortState ref="A2:G184">
+    <sortCondition ref="D1:D184"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -2414,7 +2317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5636,22 +5539,25 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>463</v>
+        <v>628</v>
       </c>
       <c r="B153" t="s">
-        <v>392</v>
+        <v>629</v>
+      </c>
+      <c r="C153" t="s">
+        <v>630</v>
       </c>
       <c r="D153" t="s">
-        <v>152</v>
+        <v>631</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
+        <v>632</v>
       </c>
       <c r="F153" t="s">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="G153" t="s">
-        <v>462</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,16 +5565,13 @@
         <v>463</v>
       </c>
       <c r="B154" t="s">
-        <v>517</v>
-      </c>
-      <c r="C154" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="D154" t="s">
-        <v>519</v>
+        <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>520</v>
+        <v>153</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
@@ -5682,13 +5585,16 @@
         <v>463</v>
       </c>
       <c r="B155" t="s">
-        <v>400</v>
+        <v>517</v>
+      </c>
+      <c r="C155" t="s">
+        <v>518</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -5702,16 +5608,13 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>559</v>
-      </c>
-      <c r="C156" t="s">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="D156" t="s">
-        <v>529</v>
+        <v>178</v>
       </c>
       <c r="E156" t="s">
-        <v>602</v>
+        <v>179</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
@@ -5725,13 +5628,16 @@
         <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>345</v>
+        <v>559</v>
+      </c>
+      <c r="C157" t="s">
+        <v>559</v>
       </c>
       <c r="D157" t="s">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="E157" t="s">
-        <v>56</v>
+        <v>602</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
@@ -5745,16 +5651,13 @@
         <v>463</v>
       </c>
       <c r="B158" t="s">
-        <v>446</v>
-      </c>
-      <c r="C158" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="D158" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="E158" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
@@ -5768,16 +5671,16 @@
         <v>463</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="D159" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
@@ -5791,16 +5694,16 @@
         <v>463</v>
       </c>
       <c r="B160" t="s">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
-        <v>592</v>
+        <v>37</v>
       </c>
       <c r="D160" t="s">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="E160" t="s">
-        <v>614</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
@@ -5814,16 +5717,16 @@
         <v>463</v>
       </c>
       <c r="B161" t="s">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="C161" t="s">
-        <v>245</v>
+        <v>592</v>
       </c>
       <c r="D161" t="s">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="E161" t="s">
-        <v>247</v>
+        <v>614</v>
       </c>
       <c r="F161" t="s">
         <v>0</v>
@@ -5837,16 +5740,16 @@
         <v>463</v>
       </c>
       <c r="B162" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E162" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
@@ -5860,16 +5763,16 @@
         <v>463</v>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E163" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
@@ -5883,16 +5786,16 @@
         <v>463</v>
       </c>
       <c r="B164" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C164" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D164" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E164" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
@@ -5906,16 +5809,16 @@
         <v>463</v>
       </c>
       <c r="B165" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D165" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E165" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F165" t="s">
         <v>0</v>
@@ -5929,16 +5832,16 @@
         <v>463</v>
       </c>
       <c r="B166" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E166" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F166" t="s">
         <v>0</v>
@@ -5952,16 +5855,16 @@
         <v>463</v>
       </c>
       <c r="B167" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C167" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D167" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E167" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
@@ -5975,16 +5878,16 @@
         <v>463</v>
       </c>
       <c r="B168" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C168" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D168" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E168" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
@@ -5998,16 +5901,16 @@
         <v>463</v>
       </c>
       <c r="B169" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C169" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D169" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E169" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F169" t="s">
         <v>0</v>
@@ -6021,16 +5924,16 @@
         <v>463</v>
       </c>
       <c r="B170" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C170" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D170" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E170" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
@@ -6044,13 +5947,16 @@
         <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>348</v>
+        <v>424</v>
+      </c>
+      <c r="C171" t="s">
+        <v>239</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
@@ -6064,16 +5970,13 @@
         <v>463</v>
       </c>
       <c r="B172" t="s">
-        <v>412</v>
-      </c>
-      <c r="C172" t="s">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="D172" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="E172" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="F172" t="s">
         <v>0</v>
@@ -6087,16 +5990,16 @@
         <v>463</v>
       </c>
       <c r="B173" t="s">
-        <v>574</v>
+        <v>412</v>
       </c>
       <c r="C173" t="s">
-        <v>574</v>
+        <v>205</v>
       </c>
       <c r="D173" t="s">
-        <v>544</v>
+        <v>206</v>
       </c>
       <c r="E173" t="s">
-        <v>617</v>
+        <v>207</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
@@ -6110,16 +6013,16 @@
         <v>463</v>
       </c>
       <c r="B174" t="s">
-        <v>428</v>
+        <v>574</v>
       </c>
       <c r="C174" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="D174" t="s">
-        <v>252</v>
+        <v>544</v>
       </c>
       <c r="E174" t="s">
-        <v>253</v>
+        <v>617</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
@@ -6133,16 +6036,16 @@
         <v>463</v>
       </c>
       <c r="B175" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D175" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E175" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
@@ -6156,16 +6059,16 @@
         <v>463</v>
       </c>
       <c r="B176" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C176" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D176" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E176" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
@@ -6179,13 +6082,16 @@
         <v>463</v>
       </c>
       <c r="B177" t="s">
-        <v>344</v>
+        <v>415</v>
+      </c>
+      <c r="C177" t="s">
+        <v>214</v>
       </c>
       <c r="D177" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="E177" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
@@ -6199,13 +6105,13 @@
         <v>463</v>
       </c>
       <c r="B178" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="D178" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="E178" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
@@ -6219,16 +6125,13 @@
         <v>463</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
-      </c>
-      <c r="C179" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="D179" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="E179" t="s">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
@@ -6242,13 +6145,16 @@
         <v>463</v>
       </c>
       <c r="B180" t="s">
-        <v>435</v>
+        <v>314</v>
+      </c>
+      <c r="C180" t="s">
+        <v>314</v>
       </c>
       <c r="D180" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="E180" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
@@ -6262,16 +6168,13 @@
         <v>463</v>
       </c>
       <c r="B181" t="s">
-        <v>563</v>
-      </c>
-      <c r="C181" t="s">
-        <v>563</v>
+        <v>435</v>
       </c>
       <c r="D181" t="s">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="E181" t="s">
-        <v>606</v>
+        <v>268</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
@@ -6285,16 +6188,16 @@
         <v>463</v>
       </c>
       <c r="B182" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D182" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E182" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
@@ -6308,33 +6211,56 @@
         <v>463</v>
       </c>
       <c r="B183" t="s">
+        <v>565</v>
+      </c>
+      <c r="C183" t="s">
+        <v>588</v>
+      </c>
+      <c r="D183" t="s">
+        <v>535</v>
+      </c>
+      <c r="E183" t="s">
+        <v>608</v>
+      </c>
+      <c r="F183" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>463</v>
+      </c>
+      <c r="B184" t="s">
         <v>380</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>126</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>127</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>128</v>
       </c>
-      <c r="F183" t="s">
-        <v>0</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="F184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
         <v>462</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B183 B2:B152">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183 C2:C152">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D183 D2:D152">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="634">
   <si>
     <t>Open</t>
   </si>
@@ -1918,9 +1918,6 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/home/SJS</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
   </si>
   <si>
     <t>CC-BY</t>
@@ -2319,7 +2316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5554,10 +5553,10 @@
         <v>632</v>
       </c>
       <c r="F153" t="s">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
         <v>633</v>
-      </c>
-      <c r="G153" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="637">
   <si>
     <t>Open</t>
   </si>
@@ -1921,6 +1921,15 @@
   </si>
   <si>
     <t>CC-BY</t>
+  </si>
+  <si>
+    <t>2058-4601</t>
+  </si>
+  <si>
+    <t>Acta Radiologica Open</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/arr</t>
   </si>
 </sst>
 </file>
@@ -2033,10 +2042,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G184" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G184"/>
-  <sortState ref="A2:G184">
-    <sortCondition ref="D1:D184"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G185"/>
+  <sortState ref="A2:G185">
+    <sortCondition ref="D1:D185"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -2314,11 +2323,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2359,19 +2366,22 @@
         <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
+        <v>634</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>635</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>636</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2379,16 +2389,13 @@
         <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" t="s">
-        <v>557</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>600</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -2402,16 +2409,16 @@
         <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -2425,13 +2432,16 @@
         <v>463</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>465</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -2445,13 +2455,13 @@
         <v>463</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -2465,16 +2475,13 @@
         <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C7" t="s">
-        <v>585</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>525</v>
+        <v>256</v>
       </c>
       <c r="E7" t="s">
-        <v>598</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -2488,16 +2495,16 @@
         <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>555</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>525</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>598</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -2511,16 +2518,16 @@
         <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>523</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -2534,16 +2541,16 @@
         <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>524</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -2554,16 +2561,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -2574,16 +2584,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>296</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -2597,13 +2607,13 @@
         <v>463</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -2617,13 +2627,13 @@
         <v>463</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -2637,13 +2647,13 @@
         <v>463</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2657,13 +2667,13 @@
         <v>463</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -2677,13 +2687,13 @@
         <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -2697,13 +2707,13 @@
         <v>463</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -2717,13 +2727,13 @@
         <v>463</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -2737,16 +2747,13 @@
         <v>463</v>
       </c>
       <c r="B20" t="s">
-        <v>577</v>
-      </c>
-      <c r="C20" t="s">
-        <v>577</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>620</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
@@ -2757,16 +2764,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>436</v>
+        <v>577</v>
+      </c>
+      <c r="C21" t="s">
+        <v>577</v>
       </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>547</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>620</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -2777,16 +2787,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
@@ -2797,16 +2807,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -2820,16 +2830,13 @@
         <v>463</v>
       </c>
       <c r="B24" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -2843,13 +2850,16 @@
         <v>463</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>433</v>
+      </c>
+      <c r="C25" t="s">
+        <v>262</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -2863,13 +2873,13 @@
         <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -2883,16 +2893,13 @@
         <v>463</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
+        <v>452</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -2906,13 +2913,16 @@
         <v>463</v>
       </c>
       <c r="B28" t="s">
-        <v>438</v>
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2926,16 +2936,13 @@
         <v>463</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
-      </c>
-      <c r="C29" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="D29" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -2949,13 +2956,16 @@
         <v>463</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>457</v>
+      </c>
+      <c r="C30" t="s">
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -2969,13 +2979,13 @@
         <v>463</v>
       </c>
       <c r="B31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -2989,13 +2999,13 @@
         <v>463</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -3009,13 +3019,13 @@
         <v>463</v>
       </c>
       <c r="B33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -3029,13 +3039,13 @@
         <v>463</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -3049,13 +3059,13 @@
         <v>463</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -3069,13 +3079,13 @@
         <v>463</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
@@ -3089,13 +3099,13 @@
         <v>463</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -3109,13 +3119,13 @@
         <v>463</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -3129,13 +3139,13 @@
         <v>463</v>
       </c>
       <c r="B39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -3149,13 +3159,13 @@
         <v>463</v>
       </c>
       <c r="B40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -3169,13 +3179,13 @@
         <v>463</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -3189,16 +3199,13 @@
         <v>463</v>
       </c>
       <c r="B42" t="s">
-        <v>579</v>
-      </c>
-      <c r="C42" t="s">
-        <v>579</v>
+        <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>549</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>622</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -3212,16 +3219,16 @@
         <v>463</v>
       </c>
       <c r="B43" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C43" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D43" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="E43" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -3235,13 +3242,16 @@
         <v>463</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>568</v>
+      </c>
+      <c r="C44" t="s">
+        <v>568</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>538</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>611</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -3255,16 +3265,13 @@
         <v>463</v>
       </c>
       <c r="B45" t="s">
-        <v>575</v>
-      </c>
-      <c r="C45" t="s">
-        <v>575</v>
+        <v>431</v>
       </c>
       <c r="D45" t="s">
-        <v>545</v>
+        <v>258</v>
       </c>
       <c r="E45" t="s">
-        <v>618</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -3278,16 +3285,16 @@
         <v>463</v>
       </c>
       <c r="B46" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C46" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="D46" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E46" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
@@ -3301,16 +3308,16 @@
         <v>463</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="C47" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D47" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="E47" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -3324,13 +3331,16 @@
         <v>463</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>564</v>
+      </c>
+      <c r="C48" t="s">
+        <v>587</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>534</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>607</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -3341,16 +3351,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="D49" t="s">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -3361,19 +3371,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C50" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D50" t="s">
-        <v>470</v>
+        <v>287</v>
       </c>
       <c r="E50" t="s">
-        <v>471</v>
+        <v>288</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -3387,16 +3394,16 @@
         <v>463</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E51" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -3410,16 +3417,16 @@
         <v>463</v>
       </c>
       <c r="B52" t="s">
-        <v>567</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
-        <v>589</v>
+        <v>473</v>
       </c>
       <c r="D52" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="E52" t="s">
-        <v>610</v>
+        <v>475</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -3433,16 +3440,16 @@
         <v>463</v>
       </c>
       <c r="B53" t="s">
-        <v>396</v>
+        <v>567</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>589</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="E53" t="s">
-        <v>164</v>
+        <v>610</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -3456,13 +3463,16 @@
         <v>463</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>396</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -3476,13 +3486,13 @@
         <v>463</v>
       </c>
       <c r="B55" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -3493,16 +3503,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>479</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -3513,16 +3523,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>463</v>
-      </c>
-      <c r="C57" t="s">
-        <v>167</v>
+        <v>476</v>
+      </c>
+      <c r="B57" t="s">
+        <v>477</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>479</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -3533,16 +3543,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>341</v>
+        <v>463</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -3553,16 +3563,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>463</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -3576,13 +3586,13 @@
         <v>463</v>
       </c>
       <c r="B60" t="s">
-        <v>443</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -3596,16 +3606,13 @@
         <v>463</v>
       </c>
       <c r="B61" t="s">
-        <v>560</v>
-      </c>
-      <c r="C61" t="s">
-        <v>560</v>
+        <v>443</v>
       </c>
       <c r="D61" t="s">
-        <v>530</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>603</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3619,13 +3626,16 @@
         <v>463</v>
       </c>
       <c r="B62" t="s">
-        <v>429</v>
+        <v>560</v>
+      </c>
+      <c r="C62" t="s">
+        <v>560</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>603</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -3639,16 +3649,13 @@
         <v>463</v>
       </c>
       <c r="B63" t="s">
-        <v>455</v>
-      </c>
-      <c r="C63" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -3662,13 +3669,16 @@
         <v>463</v>
       </c>
       <c r="B64" t="s">
-        <v>447</v>
+        <v>455</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3679,16 +3689,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D65" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E65" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -3699,16 +3709,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -3722,13 +3732,13 @@
         <v>463</v>
       </c>
       <c r="B67" t="s">
-        <v>448</v>
+        <v>389</v>
       </c>
       <c r="D67" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -3742,16 +3752,13 @@
         <v>463</v>
       </c>
       <c r="B68" t="s">
-        <v>558</v>
-      </c>
-      <c r="C68" t="s">
-        <v>558</v>
+        <v>448</v>
       </c>
       <c r="D68" t="s">
-        <v>528</v>
+        <v>294</v>
       </c>
       <c r="E68" t="s">
-        <v>601</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
@@ -3765,16 +3772,16 @@
         <v>463</v>
       </c>
       <c r="B69" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C69" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="D69" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E69" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3788,16 +3795,16 @@
         <v>463</v>
       </c>
       <c r="B70" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="C70" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D70" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="E70" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -3811,13 +3818,16 @@
         <v>463</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>582</v>
+      </c>
+      <c r="C71" t="s">
+        <v>596</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>552</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>625</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -3831,13 +3841,13 @@
         <v>463</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -3851,13 +3861,13 @@
         <v>463</v>
       </c>
       <c r="B73" t="s">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -3868,16 +3878,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>450</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3888,16 +3898,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -3911,16 +3921,13 @@
         <v>463</v>
       </c>
       <c r="B76" t="s">
-        <v>576</v>
-      </c>
-      <c r="C76" t="s">
-        <v>576</v>
+        <v>337</v>
       </c>
       <c r="D76" t="s">
-        <v>546</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>619</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
@@ -3934,16 +3941,16 @@
         <v>463</v>
       </c>
       <c r="B77" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C77" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="D77" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E77" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -3957,16 +3964,16 @@
         <v>463</v>
       </c>
       <c r="B78" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C78" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D78" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E78" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
@@ -3980,13 +3987,16 @@
         <v>463</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>584</v>
+      </c>
+      <c r="C79" t="s">
+        <v>597</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>554</v>
       </c>
       <c r="E79" t="s">
-        <v>74</v>
+        <v>627</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -4000,16 +4010,13 @@
         <v>463</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
-      </c>
-      <c r="C80" t="s">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="E80" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
@@ -4023,13 +4030,16 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>451</v>
+        <v>427</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -4043,16 +4053,13 @@
         <v>463</v>
       </c>
       <c r="B82" t="s">
-        <v>461</v>
-      </c>
-      <c r="C82" t="s">
-        <v>329</v>
+        <v>451</v>
       </c>
       <c r="D82" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -4066,13 +4073,16 @@
         <v>463</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>461</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -4086,16 +4096,13 @@
         <v>463</v>
       </c>
       <c r="B84" t="s">
-        <v>578</v>
-      </c>
-      <c r="C84" t="s">
-        <v>578</v>
+        <v>384</v>
       </c>
       <c r="D84" t="s">
-        <v>548</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>621</v>
+        <v>136</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -4109,13 +4116,16 @@
         <v>463</v>
       </c>
       <c r="B85" t="s">
-        <v>379</v>
+        <v>578</v>
+      </c>
+      <c r="C85" t="s">
+        <v>578</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>548</v>
       </c>
       <c r="E85" t="s">
-        <v>125</v>
+        <v>621</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -4129,13 +4139,13 @@
         <v>463</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D86" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
@@ -4148,14 +4158,14 @@
       <c r="A87" t="s">
         <v>463</v>
       </c>
-      <c r="C87" t="s">
-        <v>170</v>
+      <c r="B87" t="s">
+        <v>383</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -4168,17 +4178,14 @@
       <c r="A88" t="s">
         <v>463</v>
       </c>
-      <c r="B88" t="s">
-        <v>394</v>
-      </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -4189,16 +4196,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>394</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -4209,16 +4219,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>463</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="E90" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
@@ -4232,16 +4242,13 @@
         <v>463</v>
       </c>
       <c r="B91" t="s">
-        <v>580</v>
-      </c>
-      <c r="C91" t="s">
-        <v>580</v>
+        <v>353</v>
       </c>
       <c r="D91" t="s">
-        <v>550</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>623</v>
+        <v>72</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -4255,13 +4262,16 @@
         <v>463</v>
       </c>
       <c r="B92" t="s">
-        <v>397</v>
+        <v>580</v>
+      </c>
+      <c r="C92" t="s">
+        <v>580</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>550</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>623</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
@@ -4275,16 +4285,13 @@
         <v>463</v>
       </c>
       <c r="B93" t="s">
-        <v>388</v>
-      </c>
-      <c r="C93" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -4298,16 +4305,16 @@
         <v>463</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
@@ -4321,16 +4328,16 @@
         <v>463</v>
       </c>
       <c r="B95" t="s">
-        <v>573</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>594</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>543</v>
+        <v>43</v>
       </c>
       <c r="E95" t="s">
-        <v>616</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -4344,13 +4351,16 @@
         <v>463</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>573</v>
+      </c>
+      <c r="C96" t="s">
+        <v>594</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>543</v>
       </c>
       <c r="E96" t="s">
-        <v>70</v>
+        <v>616</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -4364,16 +4374,13 @@
         <v>463</v>
       </c>
       <c r="B97" t="s">
-        <v>570</v>
-      </c>
-      <c r="C97" t="s">
-        <v>591</v>
+        <v>352</v>
       </c>
       <c r="D97" t="s">
-        <v>540</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>613</v>
+        <v>70</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -4387,13 +4394,16 @@
         <v>463</v>
       </c>
       <c r="B98" t="s">
-        <v>336</v>
+        <v>570</v>
+      </c>
+      <c r="C98" t="s">
+        <v>591</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>540</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>613</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -4407,13 +4417,13 @@
         <v>463</v>
       </c>
       <c r="B99" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -4427,16 +4437,13 @@
         <v>463</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
-      </c>
-      <c r="C100" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="D100" t="s">
-        <v>482</v>
+        <v>141</v>
       </c>
       <c r="E100" t="s">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
@@ -4450,16 +4457,16 @@
         <v>463</v>
       </c>
       <c r="B101" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D101" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E101" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -4473,13 +4480,16 @@
         <v>463</v>
       </c>
       <c r="B102" t="s">
-        <v>488</v>
+        <v>484</v>
+      </c>
+      <c r="C102" t="s">
+        <v>485</v>
       </c>
       <c r="D102" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E102" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -4493,13 +4503,13 @@
         <v>463</v>
       </c>
       <c r="B103" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D103" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E103" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -4513,16 +4523,13 @@
         <v>463</v>
       </c>
       <c r="B104" t="s">
-        <v>460</v>
-      </c>
-      <c r="C104" t="s">
-        <v>326</v>
+        <v>491</v>
       </c>
       <c r="D104" t="s">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="E104" t="s">
-        <v>328</v>
+        <v>493</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
@@ -4536,13 +4543,16 @@
         <v>463</v>
       </c>
       <c r="B105" t="s">
-        <v>351</v>
+        <v>460</v>
+      </c>
+      <c r="C105" t="s">
+        <v>326</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -4556,13 +4566,13 @@
         <v>463</v>
       </c>
       <c r="B106" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
@@ -4576,13 +4586,13 @@
         <v>463</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -4593,19 +4603,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="B108" t="s">
-        <v>495</v>
-      </c>
-      <c r="C108" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
       <c r="D108" t="s">
-        <v>497</v>
+        <v>182</v>
       </c>
       <c r="E108" t="s">
-        <v>498</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
@@ -4616,19 +4623,19 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B109" t="s">
-        <v>410</v>
+        <v>495</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>496</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>497</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
+        <v>498</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -4639,16 +4646,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>19</v>
+        <v>463</v>
       </c>
       <c r="B110" t="s">
-        <v>453</v>
+        <v>410</v>
+      </c>
+      <c r="C110" t="s">
+        <v>200</v>
       </c>
       <c r="D110" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="E110" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
@@ -4659,19 +4669,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>395</v>
-      </c>
-      <c r="C111" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="E111" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
@@ -4685,13 +4692,16 @@
         <v>463</v>
       </c>
       <c r="B112" t="s">
-        <v>343</v>
+        <v>395</v>
+      </c>
+      <c r="C112" t="s">
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
@@ -4705,13 +4715,13 @@
         <v>463</v>
       </c>
       <c r="B113" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="D113" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -4725,13 +4735,13 @@
         <v>463</v>
       </c>
       <c r="B114" t="s">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="D114" t="s">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E114" t="s">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -4745,16 +4755,13 @@
         <v>463</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
-      </c>
-      <c r="C115" t="s">
-        <v>583</v>
+        <v>499</v>
       </c>
       <c r="D115" t="s">
-        <v>553</v>
+        <v>500</v>
       </c>
       <c r="E115" t="s">
-        <v>626</v>
+        <v>501</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -4765,16 +4772,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>463</v>
       </c>
       <c r="B116" t="s">
-        <v>441</v>
+        <v>583</v>
+      </c>
+      <c r="C116" t="s">
+        <v>583</v>
       </c>
       <c r="D116" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
+        <v>626</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -4785,19 +4795,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>502</v>
-      </c>
-      <c r="C117" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="D117" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="E117" t="s">
-        <v>505</v>
+        <v>280</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -4811,16 +4818,16 @@
         <v>463</v>
       </c>
       <c r="B118" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>503</v>
       </c>
       <c r="D118" t="s">
-        <v>312</v>
+        <v>504</v>
       </c>
       <c r="E118" t="s">
-        <v>313</v>
+        <v>505</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
@@ -4834,16 +4841,16 @@
         <v>463</v>
       </c>
       <c r="B119" t="s">
-        <v>569</v>
+        <v>456</v>
       </c>
       <c r="C119" t="s">
-        <v>590</v>
+        <v>311</v>
       </c>
       <c r="D119" t="s">
-        <v>539</v>
+        <v>312</v>
       </c>
       <c r="E119" t="s">
-        <v>612</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -4857,13 +4864,16 @@
         <v>463</v>
       </c>
       <c r="B120" t="s">
-        <v>401</v>
+        <v>569</v>
+      </c>
+      <c r="C120" t="s">
+        <v>590</v>
       </c>
       <c r="D120" t="s">
-        <v>180</v>
+        <v>539</v>
       </c>
       <c r="E120" t="s">
-        <v>181</v>
+        <v>612</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
@@ -4877,13 +4887,13 @@
         <v>463</v>
       </c>
       <c r="B121" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E121" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -4894,19 +4904,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>20</v>
+        <v>463</v>
       </c>
       <c r="B122" t="s">
-        <v>459</v>
-      </c>
-      <c r="C122" t="s">
-        <v>323</v>
+        <v>437</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="F122" t="s">
         <v>0</v>
@@ -4917,16 +4924,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>411</v>
+        <v>459</v>
+      </c>
+      <c r="C123" t="s">
+        <v>323</v>
       </c>
       <c r="D123" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
@@ -4937,16 +4947,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>463</v>
       </c>
       <c r="B124" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="D124" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="E124" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
@@ -4957,19 +4967,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
-      </c>
-      <c r="C125" t="s">
-        <v>194</v>
+        <v>439</v>
       </c>
       <c r="D125" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="E125" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
@@ -4983,13 +4990,16 @@
         <v>463</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>408</v>
+      </c>
+      <c r="C126" t="s">
+        <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
@@ -5003,16 +5013,13 @@
         <v>463</v>
       </c>
       <c r="B127" t="s">
-        <v>566</v>
-      </c>
-      <c r="C127" t="s">
-        <v>566</v>
+        <v>339</v>
       </c>
       <c r="D127" t="s">
-        <v>536</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>609</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
@@ -5026,13 +5033,16 @@
         <v>463</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>566</v>
+      </c>
+      <c r="C128" t="s">
+        <v>566</v>
       </c>
       <c r="D128" t="s">
-        <v>65</v>
+        <v>536</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>609</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
@@ -5043,16 +5053,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>463</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>66</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
@@ -5063,16 +5073,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>463</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="D130" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
@@ -5086,13 +5096,13 @@
         <v>463</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D131" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E131" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
@@ -5106,13 +5116,13 @@
         <v>463</v>
       </c>
       <c r="B132" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D132" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
@@ -5126,13 +5136,13 @@
         <v>463</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
@@ -5146,13 +5156,13 @@
         <v>463</v>
       </c>
       <c r="B134" t="s">
-        <v>506</v>
+        <v>381</v>
       </c>
       <c r="D134" t="s">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>508</v>
+        <v>130</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
@@ -5166,16 +5176,13 @@
         <v>463</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
-      </c>
-      <c r="C135" t="s">
-        <v>119</v>
+        <v>506</v>
       </c>
       <c r="D135" t="s">
-        <v>120</v>
+        <v>507</v>
       </c>
       <c r="E135" t="s">
-        <v>121</v>
+        <v>508</v>
       </c>
       <c r="F135" t="s">
         <v>0</v>
@@ -5189,13 +5196,16 @@
         <v>463</v>
       </c>
       <c r="B136" t="s">
-        <v>349</v>
+        <v>377</v>
+      </c>
+      <c r="C136" t="s">
+        <v>119</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="F136" t="s">
         <v>0</v>
@@ -5209,16 +5219,13 @@
         <v>463</v>
       </c>
       <c r="B137" t="s">
-        <v>509</v>
-      </c>
-      <c r="C137" t="s">
-        <v>509</v>
+        <v>349</v>
       </c>
       <c r="D137" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="E137" t="s">
-        <v>521</v>
+        <v>64</v>
       </c>
       <c r="F137" t="s">
         <v>0</v>
@@ -5232,16 +5239,16 @@
         <v>463</v>
       </c>
       <c r="B138" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="C138" t="s">
-        <v>556</v>
+        <v>509</v>
       </c>
       <c r="D138" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="E138" t="s">
-        <v>599</v>
+        <v>521</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
@@ -5255,16 +5262,16 @@
         <v>463</v>
       </c>
       <c r="B139" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C139" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D139" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E139" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
@@ -5278,13 +5285,16 @@
         <v>463</v>
       </c>
       <c r="B140" t="s">
-        <v>347</v>
+        <v>561</v>
+      </c>
+      <c r="C140" t="s">
+        <v>561</v>
       </c>
       <c r="D140" t="s">
-        <v>59</v>
+        <v>531</v>
       </c>
       <c r="E140" t="s">
-        <v>60</v>
+        <v>604</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
@@ -5298,13 +5308,13 @@
         <v>463</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="E141" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
@@ -5318,16 +5328,13 @@
         <v>463</v>
       </c>
       <c r="B142" t="s">
-        <v>511</v>
-      </c>
-      <c r="C142" t="s">
-        <v>512</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>513</v>
+        <v>154</v>
       </c>
       <c r="E142" t="s">
-        <v>514</v>
+        <v>155</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
@@ -5341,13 +5348,16 @@
         <v>463</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>511</v>
+      </c>
+      <c r="C143" t="s">
+        <v>512</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>514</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
@@ -5361,13 +5371,13 @@
         <v>463</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D144" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E144" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
@@ -5381,13 +5391,13 @@
         <v>463</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="D145" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="F145" t="s">
         <v>0</v>
@@ -5401,16 +5411,13 @@
         <v>463</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
-      </c>
-      <c r="C146" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E146" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
@@ -5424,13 +5431,16 @@
         <v>463</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>409</v>
+      </c>
+      <c r="C147" t="s">
+        <v>197</v>
       </c>
       <c r="D147" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="E147" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
@@ -5444,13 +5454,13 @@
         <v>463</v>
       </c>
       <c r="B148" t="s">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="D148" t="s">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
         <v>0</v>
@@ -5464,13 +5474,13 @@
         <v>463</v>
       </c>
       <c r="B149" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="E149" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
@@ -5484,13 +5494,13 @@
         <v>463</v>
       </c>
       <c r="B150" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D150" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E150" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F150" t="s">
         <v>0</v>
@@ -5504,10 +5514,13 @@
         <v>463</v>
       </c>
       <c r="B151" t="s">
-        <v>515</v>
+        <v>419</v>
       </c>
       <c r="D151" t="s">
-        <v>516</v>
+        <v>226</v>
+      </c>
+      <c r="E151" t="s">
+        <v>227</v>
       </c>
       <c r="F151" t="s">
         <v>0</v>
@@ -5521,13 +5534,10 @@
         <v>463</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="D152" t="s">
-        <v>285</v>
-      </c>
-      <c r="E152" t="s">
-        <v>286</v>
+        <v>516</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
@@ -5538,45 +5548,45 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>628</v>
+        <v>463</v>
       </c>
       <c r="B153" t="s">
-        <v>629</v>
-      </c>
-      <c r="C153" t="s">
-        <v>630</v>
+        <v>444</v>
       </c>
       <c r="D153" t="s">
-        <v>631</v>
+        <v>285</v>
       </c>
       <c r="E153" t="s">
-        <v>632</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>633</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>463</v>
+        <v>628</v>
       </c>
       <c r="B154" t="s">
-        <v>392</v>
+        <v>629</v>
+      </c>
+      <c r="C154" t="s">
+        <v>630</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>631</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>632</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>462</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5584,16 +5594,13 @@
         <v>463</v>
       </c>
       <c r="B155" t="s">
-        <v>517</v>
-      </c>
-      <c r="C155" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="D155" t="s">
-        <v>519</v>
+        <v>152</v>
       </c>
       <c r="E155" t="s">
-        <v>520</v>
+        <v>153</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -5607,13 +5614,16 @@
         <v>463</v>
       </c>
       <c r="B156" t="s">
-        <v>400</v>
+        <v>517</v>
+      </c>
+      <c r="C156" t="s">
+        <v>518</v>
       </c>
       <c r="D156" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="E156" t="s">
-        <v>179</v>
+        <v>520</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
@@ -5627,16 +5637,13 @@
         <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>559</v>
-      </c>
-      <c r="C157" t="s">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="D157" t="s">
-        <v>529</v>
+        <v>178</v>
       </c>
       <c r="E157" t="s">
-        <v>602</v>
+        <v>179</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
@@ -5650,13 +5657,16 @@
         <v>463</v>
       </c>
       <c r="B158" t="s">
-        <v>345</v>
+        <v>559</v>
+      </c>
+      <c r="C158" t="s">
+        <v>559</v>
       </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>529</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>602</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
@@ -5670,16 +5680,13 @@
         <v>463</v>
       </c>
       <c r="B159" t="s">
-        <v>446</v>
-      </c>
-      <c r="C159" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="D159" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
@@ -5693,16 +5700,16 @@
         <v>463</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>446</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="D160" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
@@ -5716,16 +5723,16 @@
         <v>463</v>
       </c>
       <c r="B161" t="s">
-        <v>571</v>
+        <v>37</v>
       </c>
       <c r="C161" t="s">
-        <v>592</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="E161" t="s">
-        <v>614</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
         <v>0</v>
@@ -5739,16 +5746,16 @@
         <v>463</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>592</v>
       </c>
       <c r="D162" t="s">
-        <v>246</v>
+        <v>541</v>
       </c>
       <c r="E162" t="s">
-        <v>247</v>
+        <v>614</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
@@ -5762,16 +5769,16 @@
         <v>463</v>
       </c>
       <c r="B163" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E163" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
@@ -5785,16 +5792,16 @@
         <v>463</v>
       </c>
       <c r="B164" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D164" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E164" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
@@ -5808,16 +5815,16 @@
         <v>463</v>
       </c>
       <c r="B165" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C165" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D165" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E165" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F165" t="s">
         <v>0</v>
@@ -5831,16 +5838,16 @@
         <v>463</v>
       </c>
       <c r="B166" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D166" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="E166" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F166" t="s">
         <v>0</v>
@@ -5854,16 +5861,16 @@
         <v>463</v>
       </c>
       <c r="B167" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D167" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E167" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
@@ -5877,16 +5884,16 @@
         <v>463</v>
       </c>
       <c r="B168" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C168" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D168" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E168" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
@@ -5900,16 +5907,16 @@
         <v>463</v>
       </c>
       <c r="B169" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C169" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E169" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F169" t="s">
         <v>0</v>
@@ -5923,16 +5930,16 @@
         <v>463</v>
       </c>
       <c r="B170" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E170" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
@@ -5946,16 +5953,16 @@
         <v>463</v>
       </c>
       <c r="B171" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C171" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D171" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E171" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
@@ -5969,13 +5976,16 @@
         <v>463</v>
       </c>
       <c r="B172" t="s">
-        <v>348</v>
+        <v>424</v>
+      </c>
+      <c r="C172" t="s">
+        <v>239</v>
       </c>
       <c r="D172" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="E172" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="F172" t="s">
         <v>0</v>
@@ -5989,16 +5999,13 @@
         <v>463</v>
       </c>
       <c r="B173" t="s">
-        <v>412</v>
-      </c>
-      <c r="C173" t="s">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="D173" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="E173" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
@@ -6012,16 +6019,16 @@
         <v>463</v>
       </c>
       <c r="B174" t="s">
-        <v>574</v>
+        <v>412</v>
       </c>
       <c r="C174" t="s">
-        <v>574</v>
+        <v>205</v>
       </c>
       <c r="D174" t="s">
-        <v>544</v>
+        <v>206</v>
       </c>
       <c r="E174" t="s">
-        <v>617</v>
+        <v>207</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
@@ -6035,16 +6042,16 @@
         <v>463</v>
       </c>
       <c r="B175" t="s">
-        <v>428</v>
+        <v>574</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="D175" t="s">
-        <v>252</v>
+        <v>544</v>
       </c>
       <c r="E175" t="s">
-        <v>253</v>
+        <v>617</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
@@ -6058,16 +6065,16 @@
         <v>463</v>
       </c>
       <c r="B176" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D176" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E176" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
@@ -6081,16 +6088,16 @@
         <v>463</v>
       </c>
       <c r="B177" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C177" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D177" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E177" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
@@ -6104,13 +6111,16 @@
         <v>463</v>
       </c>
       <c r="B178" t="s">
-        <v>344</v>
+        <v>415</v>
+      </c>
+      <c r="C178" t="s">
+        <v>214</v>
       </c>
       <c r="D178" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="E178" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
@@ -6124,13 +6134,13 @@
         <v>463</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="D179" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="E179" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
@@ -6144,16 +6154,13 @@
         <v>463</v>
       </c>
       <c r="B180" t="s">
-        <v>314</v>
-      </c>
-      <c r="C180" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>315</v>
+        <v>137</v>
       </c>
       <c r="E180" t="s">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
@@ -6167,13 +6174,16 @@
         <v>463</v>
       </c>
       <c r="B181" t="s">
-        <v>435</v>
+        <v>314</v>
+      </c>
+      <c r="C181" t="s">
+        <v>314</v>
       </c>
       <c r="D181" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="E181" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
@@ -6187,16 +6197,13 @@
         <v>463</v>
       </c>
       <c r="B182" t="s">
-        <v>563</v>
-      </c>
-      <c r="C182" t="s">
-        <v>563</v>
+        <v>435</v>
       </c>
       <c r="D182" t="s">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="E182" t="s">
-        <v>606</v>
+        <v>268</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
@@ -6210,16 +6217,16 @@
         <v>463</v>
       </c>
       <c r="B183" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C183" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D183" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E183" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F183" t="s">
         <v>0</v>
@@ -6233,21 +6240,44 @@
         <v>463</v>
       </c>
       <c r="B184" t="s">
+        <v>565</v>
+      </c>
+      <c r="C184" t="s">
+        <v>588</v>
+      </c>
+      <c r="D184" t="s">
+        <v>535</v>
+      </c>
+      <c r="E184" t="s">
+        <v>608</v>
+      </c>
+      <c r="F184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>463</v>
+      </c>
+      <c r="B185" t="s">
         <v>380</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>126</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>127</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E185" t="s">
         <v>128</v>
       </c>
-      <c r="F184" t="s">
-        <v>0</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="F185" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
         <v>462</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="621">
   <si>
     <t>Open</t>
   </si>
@@ -93,9 +93,6 @@
     <t>https://journals.sagepub.com/home/CRD</t>
   </si>
   <si>
-    <t>Annals of Neurosciences</t>
-  </si>
-  <si>
     <t>Brain Science Advances</t>
   </si>
   <si>
@@ -1587,45 +1584,21 @@
     <t>https://journals.sagepub.com/home/ott</t>
   </si>
   <si>
-    <t>0976-3260</t>
-  </si>
-  <si>
-    <t>0972-7531</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/home/aon</t>
-  </si>
-  <si>
-    <t>American Journal of Alzheimer's Disease &amp; Other Dementias®</t>
-  </si>
-  <si>
     <t>Orthopaedic Journal of Sports Medicine</t>
   </si>
   <si>
     <t>AERA Open</t>
   </si>
   <si>
-    <t>Global Qualitative Nursing Research</t>
-  </si>
-  <si>
-    <t>Socius</t>
-  </si>
-  <si>
     <t>Foot &amp; Ankle Orthopaedics</t>
   </si>
   <si>
     <t>OTO Open</t>
   </si>
   <si>
-    <t>Global Spine Journal</t>
-  </si>
-  <si>
     <t>Video Journal of Sports Medicine</t>
   </si>
   <si>
-    <t>Diabetes and Vascular Disease Research</t>
-  </si>
-  <si>
     <t>Vikalpa</t>
   </si>
   <si>
@@ -1635,18 +1608,9 @@
     <t>Emerging Economies Cases Journal</t>
   </si>
   <si>
-    <t>Composites and Advanced Materials</t>
-  </si>
-  <si>
     <t>Journal of Psychosexual Health</t>
   </si>
   <si>
-    <t>Journal of Chemical Research</t>
-  </si>
-  <si>
-    <t>The Traumaxilla</t>
-  </si>
-  <si>
     <t>Indian Journal of Clinical Cardiology</t>
   </si>
   <si>
@@ -1656,9 +1620,6 @@
     <t>Therapeutic Advances in Rare Disease</t>
   </si>
   <si>
-    <t>Craniomaxillofacial Trauma &amp; Reconstruction Open</t>
-  </si>
-  <si>
     <t>Implementation Research and Practice</t>
   </si>
   <si>
@@ -1677,45 +1638,24 @@
     <t>Cultures of Science</t>
   </si>
   <si>
-    <t>Health Informatics Journal</t>
-  </si>
-  <si>
-    <t>Journal of Pacific Rim Psychology</t>
-  </si>
-  <si>
     <t>Indian Journal of Psychological Medicine</t>
   </si>
   <si>
-    <t>1938-2731</t>
-  </si>
-  <si>
     <t>2325-9671</t>
   </si>
   <si>
     <t>2332-8584</t>
   </si>
   <si>
-    <t>2333-3936</t>
-  </si>
-  <si>
-    <t>2378-0231</t>
-  </si>
-  <si>
     <t>2473-0114</t>
   </si>
   <si>
     <t>2473-974X</t>
   </si>
   <si>
-    <t>2192-5690</t>
-  </si>
-  <si>
     <t>2635-0254</t>
   </si>
   <si>
-    <t>1752-8984</t>
-  </si>
-  <si>
     <t>2395-3799</t>
   </si>
   <si>
@@ -1725,18 +1665,9 @@
     <t>2516-6050</t>
   </si>
   <si>
-    <t>2633-366X</t>
-  </si>
-  <si>
     <t>2631-8326</t>
   </si>
   <si>
-    <t>2047-6507</t>
-  </si>
-  <si>
-    <t>2632-3281</t>
-  </si>
-  <si>
     <t>2632-4644</t>
   </si>
   <si>
@@ -1746,9 +1677,6 @@
     <t>2633-0040</t>
   </si>
   <si>
-    <t>2472-7512</t>
-  </si>
-  <si>
     <t>2633-4895</t>
   </si>
   <si>
@@ -1767,24 +1695,9 @@
     <t>2633-3287</t>
   </si>
   <si>
-    <t>1741-2811</t>
-  </si>
-  <si>
-    <t>1834-4909</t>
-  </si>
-  <si>
     <t>0975-1564</t>
   </si>
   <si>
-    <t>1533-3175</t>
-  </si>
-  <si>
-    <t>2192-5682</t>
-  </si>
-  <si>
-    <t>1479-1641</t>
-  </si>
-  <si>
     <t>0256-0909</t>
   </si>
   <si>
@@ -1794,12 +1707,6 @@
     <t>2631-8318</t>
   </si>
   <si>
-    <t>1747-5198</t>
-  </si>
-  <si>
-    <t>2632-3273</t>
-  </si>
-  <si>
     <t>2632-4636</t>
   </si>
   <si>
@@ -1809,42 +1716,24 @@
     <t>2096-6083</t>
   </si>
   <si>
-    <t>1460-4582</t>
-  </si>
-  <si>
     <t>0253-7176</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/aja</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/ojs</t>
   </si>
   <si>
     <t>https://journals.sagepub.com/home/ero</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/gqn</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/home/srd</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/fao</t>
   </si>
   <si>
     <t>https://journals.sagepub.com/home/opn</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/gsj</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/vjs</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/dvr</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/vik</t>
   </si>
   <si>
@@ -1854,18 +1743,9 @@
     <t>https://journals.sagepub.com/home/eec</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/acm</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/ssh</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/chl</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/home/tmx</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/occ</t>
   </si>
   <si>
@@ -1875,9 +1755,6 @@
     <t>https://journals.sagepub.com/home/trd</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/cmo</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/irp</t>
   </si>
   <si>
@@ -1896,12 +1773,6 @@
     <t>https://journals.sagepub.com/home/cul</t>
   </si>
   <si>
-    <t>https://journals.sagepub.com/home/jhi</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/home/pac</t>
-  </si>
-  <si>
     <t>https://journals.sagepub.com/home/szj</t>
   </si>
   <si>
@@ -1923,13 +1794,94 @@
     <t>CC-BY</t>
   </si>
   <si>
-    <t>2058-4601</t>
-  </si>
-  <si>
-    <t>Acta Radiologica Open</t>
-  </si>
-  <si>
-    <t>https://journals.sagepub.com/home/arr</t>
+    <t>Advanced Composites Letters</t>
+  </si>
+  <si>
+    <t>Cartilage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Qualitative Nursing Research </t>
+  </si>
+  <si>
+    <t>Human &amp; Experimental Toxicology</t>
+  </si>
+  <si>
+    <t>Journal of Cardiovascular Pharmacology and Therapeutics</t>
+  </si>
+  <si>
+    <t>Journal of Industrial Textiles</t>
+  </si>
+  <si>
+    <t>Polymers and Polymer Composites</t>
+  </si>
+  <si>
+    <t>Sexualization, Media and Society</t>
+  </si>
+  <si>
+    <t>Antiviral Therapy</t>
+  </si>
+  <si>
+    <t>Journal of Children's Orthopaedics</t>
+  </si>
+  <si>
+    <t>0963-6935</t>
+  </si>
+  <si>
+    <t>1947-6043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2333-3936 </t>
+  </si>
+  <si>
+    <t>1477-0903</t>
+  </si>
+  <si>
+    <t>1940-4034</t>
+  </si>
+  <si>
+    <t>1530-8057</t>
+  </si>
+  <si>
+    <t>1478-2391</t>
+  </si>
+  <si>
+    <t>2374-6238</t>
+  </si>
+  <si>
+    <t>2040-2058</t>
+  </si>
+  <si>
+    <t>1863-2548</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/ACM</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/CAR</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/GQN</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/HET</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/CPT</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/JIT</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/PPC</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/SME</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/loi/AVT</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/CHO</t>
   </si>
 </sst>
 </file>
@@ -1980,23 +1932,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="27">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2028,6 +1973,231 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2042,10 +2212,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G185"/>
-  <sortState ref="A2:G185">
-    <sortCondition ref="D1:D185"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:G182"/>
+  <sortState ref="A2:G182">
+    <sortCondition ref="D1:D182"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -2323,7 +2493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2363,557 +2533,548 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C2" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="D2" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>633</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="s">
         <v>176</v>
       </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C4" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E4" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E5" t="s">
         <v>463</v>
       </c>
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E5" t="s">
-        <v>464</v>
-      </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
         <v>117</v>
       </c>
-      <c r="E6" t="s">
-        <v>118</v>
-      </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" t="s">
         <v>256</v>
       </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
-        <v>585</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>525</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>598</v>
+        <v>321</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C10" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>599</v>
       </c>
       <c r="E10" t="s">
-        <v>524</v>
+        <v>619</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C11" t="s">
-        <v>173</v>
+        <v>448</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>449</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>553</v>
+      </c>
+      <c r="C20" t="s">
+        <v>553</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>534</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>579</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>463</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>577</v>
-      </c>
-      <c r="C21" t="s">
-        <v>577</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>620</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>462</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B24" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>592</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>612</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" t="s">
         <v>262</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>263</v>
       </c>
-      <c r="E25" t="s">
-        <v>264</v>
-      </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" t="s">
         <v>302</v>
       </c>
-      <c r="E27" t="s">
-        <v>303</v>
-      </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -2928,3368 +3089,3287 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D29" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" t="s">
         <v>273</v>
       </c>
-      <c r="E29" t="s">
-        <v>274</v>
-      </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" t="s">
         <v>317</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>318</v>
       </c>
-      <c r="E30" t="s">
-        <v>319</v>
-      </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
-        <v>106</v>
-      </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
         <v>103</v>
       </c>
-      <c r="E32" t="s">
-        <v>104</v>
-      </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" t="s">
-        <v>102</v>
-      </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
-        <v>100</v>
-      </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
         <v>97</v>
       </c>
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
         <v>95</v>
       </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
         <v>93</v>
       </c>
-      <c r="E37" t="s">
-        <v>94</v>
-      </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
         <v>91</v>
       </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
         <v>87</v>
       </c>
-      <c r="E39" t="s">
-        <v>88</v>
-      </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
         <v>85</v>
       </c>
-      <c r="E40" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
         <v>83</v>
       </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" t="s">
-        <v>90</v>
-      </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B43" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C43" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D43" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E43" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
-      </c>
-      <c r="C44" t="s">
-        <v>568</v>
+        <v>430</v>
       </c>
       <c r="D44" t="s">
-        <v>538</v>
+        <v>257</v>
       </c>
       <c r="E44" t="s">
-        <v>611</v>
+        <v>258</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>557</v>
+      </c>
+      <c r="C45" t="s">
+        <v>564</v>
       </c>
       <c r="D45" t="s">
-        <v>258</v>
+        <v>538</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>583</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B46" t="s">
-        <v>575</v>
-      </c>
-      <c r="C46" t="s">
-        <v>575</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
-        <v>545</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>618</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>581</v>
-      </c>
-      <c r="C47" t="s">
-        <v>595</v>
+        <v>444</v>
       </c>
       <c r="D47" t="s">
-        <v>551</v>
+        <v>286</v>
       </c>
       <c r="E47" t="s">
-        <v>624</v>
+        <v>287</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B48" t="s">
-        <v>564</v>
+        <v>467</v>
       </c>
       <c r="C48" t="s">
-        <v>587</v>
+        <v>468</v>
       </c>
       <c r="D48" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="E48" t="s">
-        <v>607</v>
+        <v>470</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>472</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>473</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>474</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>462</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>547</v>
+      </c>
+      <c r="C50" t="s">
+        <v>560</v>
       </c>
       <c r="D50" t="s">
-        <v>287</v>
+        <v>528</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>573</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
       <c r="C51" t="s">
-        <v>469</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>470</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
-        <v>471</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B52" t="s">
-        <v>472</v>
-      </c>
-      <c r="C52" t="s">
-        <v>473</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s">
-        <v>567</v>
-      </c>
-      <c r="C53" t="s">
-        <v>589</v>
+        <v>355</v>
       </c>
       <c r="D53" t="s">
-        <v>537</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>610</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
-      </c>
-      <c r="C54" t="s">
-        <v>162</v>
+        <v>476</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>477</v>
       </c>
       <c r="E54" t="s">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>463</v>
-      </c>
-      <c r="B55" t="s">
-        <v>358</v>
+        <v>462</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
+        <v>462</v>
+      </c>
+      <c r="B58" t="s">
+        <v>442</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>542</v>
+      </c>
+      <c r="C59" t="s">
+        <v>542</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>523</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>568</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>454</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s">
-        <v>560</v>
-      </c>
-      <c r="C62" t="s">
-        <v>560</v>
+        <v>446</v>
       </c>
       <c r="D62" t="s">
-        <v>530</v>
+        <v>291</v>
       </c>
       <c r="E62" t="s">
-        <v>603</v>
+        <v>292</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>463</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s">
-        <v>455</v>
-      </c>
-      <c r="C64" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s">
         <v>447</v>
       </c>
       <c r="D65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>593</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>613</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
       <c r="D68" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E68" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B69" t="s">
-        <v>558</v>
-      </c>
-      <c r="C69" t="s">
-        <v>558</v>
+        <v>449</v>
       </c>
       <c r="D69" t="s">
-        <v>528</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
-        <v>601</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>562</v>
-      </c>
-      <c r="C70" t="s">
-        <v>586</v>
+        <v>341</v>
       </c>
       <c r="D70" t="s">
-        <v>532</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>605</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s">
-        <v>582</v>
-      </c>
-      <c r="C71" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="D71" t="s">
-        <v>552</v>
+        <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>625</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>604</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>594</v>
       </c>
       <c r="E72" t="s">
-        <v>185</v>
+        <v>614</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
-        <v>355</v>
+        <v>552</v>
+      </c>
+      <c r="C73" t="s">
+        <v>552</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>533</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>578</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s">
-        <v>450</v>
+        <v>549</v>
+      </c>
+      <c r="C74" t="s">
+        <v>562</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>530</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
+        <v>575</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>462</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>558</v>
+      </c>
+      <c r="C75" t="s">
+        <v>565</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>539</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>584</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D76" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s">
-        <v>576</v>
+        <v>426</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>546</v>
+        <v>248</v>
       </c>
       <c r="E77" t="s">
-        <v>619</v>
+        <v>249</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s">
-        <v>572</v>
-      </c>
-      <c r="C78" t="s">
-        <v>593</v>
+        <v>450</v>
       </c>
       <c r="D78" t="s">
-        <v>542</v>
+        <v>299</v>
       </c>
       <c r="E78" t="s">
-        <v>615</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="C79" t="s">
-        <v>597</v>
+        <v>328</v>
       </c>
       <c r="D79" t="s">
-        <v>554</v>
+        <v>329</v>
       </c>
       <c r="E79" t="s">
-        <v>627</v>
+        <v>330</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
       <c r="C81" t="s">
-        <v>248</v>
+        <v>554</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>535</v>
       </c>
       <c r="E81" t="s">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s">
-        <v>461</v>
-      </c>
-      <c r="C83" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>463</v>
-      </c>
-      <c r="B84" t="s">
-        <v>384</v>
+        <v>462</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B85" t="s">
-        <v>578</v>
+        <v>393</v>
       </c>
       <c r="C85" t="s">
-        <v>578</v>
+        <v>155</v>
       </c>
       <c r="D85" t="s">
-        <v>548</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>621</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>463</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="B88" t="s">
+        <v>556</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>556</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>537</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>582</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B89" t="s">
-        <v>394</v>
-      </c>
-      <c r="C89" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>462</v>
       </c>
       <c r="B90" t="s">
-        <v>442</v>
+        <v>387</v>
+      </c>
+      <c r="C90" t="s">
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B91" t="s">
-        <v>353</v>
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E91" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B92" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="C92" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D92" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="E92" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B93" t="s">
-        <v>397</v>
+        <v>605</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>595</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>615</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B94" t="s">
-        <v>388</v>
-      </c>
-      <c r="C94" t="s">
-        <v>143</v>
+        <v>351</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
+        <v>610</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>600</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>620</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B96" t="s">
-        <v>573</v>
-      </c>
-      <c r="C96" t="s">
-        <v>594</v>
+        <v>335</v>
       </c>
       <c r="D96" t="s">
-        <v>543</v>
+        <v>30</v>
       </c>
       <c r="E96" t="s">
-        <v>616</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B98" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
       <c r="C98" t="s">
-        <v>591</v>
+        <v>480</v>
       </c>
       <c r="D98" t="s">
-        <v>540</v>
+        <v>481</v>
       </c>
       <c r="E98" t="s">
-        <v>613</v>
+        <v>482</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B99" t="s">
-        <v>336</v>
+        <v>483</v>
+      </c>
+      <c r="C99" t="s">
+        <v>484</v>
       </c>
       <c r="D99" t="s">
-        <v>31</v>
+        <v>485</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>486</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B100" t="s">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>488</v>
       </c>
       <c r="E100" t="s">
-        <v>142</v>
+        <v>489</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B101" t="s">
-        <v>480</v>
-      </c>
-      <c r="C101" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D101" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B102" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>486</v>
+        <v>326</v>
       </c>
       <c r="E102" t="s">
-        <v>487</v>
+        <v>327</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B103" t="s">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="D103" t="s">
-        <v>489</v>
+        <v>66</v>
       </c>
       <c r="E103" t="s">
-        <v>490</v>
+        <v>67</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B104" t="s">
-        <v>491</v>
+        <v>334</v>
       </c>
       <c r="D104" t="s">
-        <v>492</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>493</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B105" t="s">
-        <v>460</v>
-      </c>
-      <c r="C105" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>494</v>
+      </c>
+      <c r="C106" t="s">
+        <v>495</v>
       </c>
       <c r="D106" t="s">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>497</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>606</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>596</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>616</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B108" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="C108" t="s">
+        <v>199</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E108" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>495</v>
-      </c>
-      <c r="C109" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="D109" t="s">
-        <v>497</v>
+        <v>303</v>
       </c>
       <c r="E109" t="s">
-        <v>498</v>
+        <v>304</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B110" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="D110" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>19</v>
+        <v>462</v>
       </c>
       <c r="B111" t="s">
-        <v>453</v>
+        <v>342</v>
       </c>
       <c r="D111" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B112" t="s">
-        <v>395</v>
-      </c>
-      <c r="C112" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B113" t="s">
-        <v>343</v>
+        <v>498</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>500</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>463</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="E114" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B115" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="C115" t="s">
+        <v>502</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E115" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>455</v>
       </c>
       <c r="C116" t="s">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="D116" t="s">
-        <v>553</v>
+        <v>311</v>
       </c>
       <c r="E116" t="s">
-        <v>626</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
       </c>
       <c r="G116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="B117" t="s">
-        <v>441</v>
+        <v>548</v>
+      </c>
+      <c r="C117" t="s">
+        <v>561</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>529</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>574</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
       </c>
       <c r="G117" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B118" t="s">
-        <v>502</v>
-      </c>
-      <c r="C118" t="s">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="D118" t="s">
-        <v>504</v>
+        <v>179</v>
       </c>
       <c r="E118" t="s">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B119" t="s">
-        <v>456</v>
-      </c>
-      <c r="C119" t="s">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>569</v>
+        <v>458</v>
       </c>
       <c r="C120" t="s">
-        <v>590</v>
+        <v>322</v>
       </c>
       <c r="D120" t="s">
-        <v>539</v>
+        <v>323</v>
       </c>
       <c r="E120" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D121" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E122" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F122" t="s">
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>20</v>
+        <v>462</v>
       </c>
       <c r="B123" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="C123" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
       </c>
       <c r="G123" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B124" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="D124" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="E124" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>462</v>
       </c>
       <c r="B125" t="s">
-        <v>439</v>
+        <v>546</v>
+      </c>
+      <c r="C125" t="s">
+        <v>546</v>
       </c>
       <c r="D125" t="s">
-        <v>275</v>
+        <v>527</v>
       </c>
       <c r="E125" t="s">
-        <v>276</v>
+        <v>572</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
-      </c>
-      <c r="C126" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="D126" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="E126" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
       </c>
       <c r="G126" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>463</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>339</v>
+        <v>439</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
       </c>
       <c r="G127" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B128" t="s">
-        <v>566</v>
-      </c>
-      <c r="C128" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>536</v>
+        <v>187</v>
       </c>
       <c r="E128" t="s">
-        <v>609</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="D129" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="B130" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="E130" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="E131" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>505</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>506</v>
       </c>
       <c r="E132" t="s">
-        <v>149</v>
+        <v>507</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B133" t="s">
-        <v>382</v>
+        <v>376</v>
+      </c>
+      <c r="C133" t="s">
+        <v>118</v>
       </c>
       <c r="D133" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E133" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B134" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="E134" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B135" t="s">
-        <v>506</v>
+        <v>508</v>
+      </c>
+      <c r="C135" t="s">
+        <v>508</v>
       </c>
       <c r="D135" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E135" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F135" t="s">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B136" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="C136" t="s">
-        <v>119</v>
+        <v>540</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>521</v>
       </c>
       <c r="E136" t="s">
-        <v>121</v>
+        <v>566</v>
       </c>
       <c r="F136" t="s">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B137" t="s">
-        <v>349</v>
+        <v>543</v>
+      </c>
+      <c r="C137" t="s">
+        <v>543</v>
       </c>
       <c r="D137" t="s">
-        <v>63</v>
+        <v>524</v>
       </c>
       <c r="E137" t="s">
-        <v>64</v>
+        <v>569</v>
       </c>
       <c r="F137" t="s">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B138" t="s">
-        <v>509</v>
-      </c>
-      <c r="C138" t="s">
-        <v>509</v>
+        <v>346</v>
       </c>
       <c r="D138" t="s">
-        <v>510</v>
+        <v>58</v>
       </c>
       <c r="E138" t="s">
-        <v>521</v>
+        <v>59</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B139" t="s">
-        <v>556</v>
-      </c>
-      <c r="C139" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="D139" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="E139" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
-      </c>
-      <c r="C140" t="s">
-        <v>561</v>
+        <v>392</v>
       </c>
       <c r="D140" t="s">
-        <v>531</v>
+        <v>153</v>
       </c>
       <c r="E140" t="s">
-        <v>604</v>
+        <v>154</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
       </c>
       <c r="G140" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B141" t="s">
-        <v>347</v>
+        <v>510</v>
+      </c>
+      <c r="C141" t="s">
+        <v>511</v>
       </c>
       <c r="D141" t="s">
-        <v>59</v>
+        <v>512</v>
       </c>
       <c r="E141" t="s">
-        <v>60</v>
+        <v>513</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="D142" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E142" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B143" t="s">
-        <v>511</v>
-      </c>
-      <c r="C143" t="s">
-        <v>512</v>
+        <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>513</v>
+        <v>56</v>
       </c>
       <c r="E143" t="s">
-        <v>514</v>
+        <v>57</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
       </c>
       <c r="G143" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B145" t="s">
-        <v>346</v>
+        <v>408</v>
+      </c>
+      <c r="C145" t="s">
+        <v>196</v>
       </c>
       <c r="D145" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="E145" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="F145" t="s">
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="D146" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="E146" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B147" t="s">
-        <v>409</v>
-      </c>
-      <c r="C147" t="s">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="D147" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="E147" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="E148" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="F148" t="s">
         <v>0</v>
       </c>
       <c r="G148" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="D149" t="s">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="E149" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B150" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="D150" t="s">
-        <v>234</v>
-      </c>
-      <c r="E150" t="s">
-        <v>235</v>
+        <v>515</v>
       </c>
       <c r="F150" t="s">
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B151" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="D151" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="E151" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
         <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>463</v>
+        <v>585</v>
       </c>
       <c r="B152" t="s">
-        <v>515</v>
+        <v>586</v>
+      </c>
+      <c r="C152" t="s">
+        <v>587</v>
       </c>
       <c r="D152" t="s">
-        <v>516</v>
+        <v>588</v>
+      </c>
+      <c r="E152" t="s">
+        <v>589</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>462</v>
+        <v>590</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B153" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D153" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c r="E153" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>628</v>
+        <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>629</v>
+        <v>516</v>
       </c>
       <c r="C154" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="D154" t="s">
-        <v>631</v>
+        <v>518</v>
       </c>
       <c r="E154" t="s">
-        <v>632</v>
+        <v>519</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>633</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>608</v>
       </c>
       <c r="D155" t="s">
-        <v>152</v>
+        <v>598</v>
       </c>
       <c r="E155" t="s">
-        <v>153</v>
+        <v>618</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
       </c>
       <c r="G155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B156" t="s">
-        <v>517</v>
-      </c>
-      <c r="C156" t="s">
-        <v>518</v>
+        <v>399</v>
       </c>
       <c r="D156" t="s">
-        <v>519</v>
+        <v>177</v>
       </c>
       <c r="E156" t="s">
-        <v>520</v>
+        <v>178</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B157" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="D157" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="E157" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
       </c>
       <c r="G157" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B158" t="s">
-        <v>559</v>
+        <v>445</v>
       </c>
       <c r="C158" t="s">
-        <v>559</v>
+        <v>288</v>
       </c>
       <c r="D158" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="E158" t="s">
-        <v>602</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
       </c>
       <c r="G158" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s">
-        <v>345</v>
+        <v>36</v>
+      </c>
+      <c r="C159" t="s">
+        <v>36</v>
       </c>
       <c r="D159" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
       </c>
       <c r="G159" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B160" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="D160" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
       </c>
       <c r="G160" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="D161" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="F161" t="s">
         <v>0</v>
       </c>
       <c r="G161" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B162" t="s">
-        <v>571</v>
+        <v>412</v>
       </c>
       <c r="C162" t="s">
-        <v>592</v>
+        <v>207</v>
       </c>
       <c r="D162" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
       <c r="E162" t="s">
-        <v>614</v>
+        <v>209</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B163" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C163" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D163" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E163" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
       </c>
       <c r="G163" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B164" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C164" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D164" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="E164" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C165" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D165" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E165" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F165" t="s">
         <v>0</v>
       </c>
       <c r="G165" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B166" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D166" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E166" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F166" t="s">
         <v>0</v>
       </c>
       <c r="G166" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C167" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D167" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E167" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
       </c>
       <c r="G167" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D168" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E168" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B169" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C169" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D169" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="E169" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="F169" t="s">
         <v>0</v>
       </c>
       <c r="G169" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B170" t="s">
-        <v>421</v>
-      </c>
-      <c r="C170" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="E170" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
       </c>
       <c r="G170" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C171" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D171" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E171" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B172" t="s">
-        <v>424</v>
+        <v>551</v>
       </c>
       <c r="C172" t="s">
-        <v>239</v>
+        <v>551</v>
       </c>
       <c r="D172" t="s">
-        <v>240</v>
+        <v>532</v>
       </c>
       <c r="E172" t="s">
-        <v>241</v>
+        <v>577</v>
       </c>
       <c r="F172" t="s">
         <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>427</v>
+      </c>
+      <c r="C173" t="s">
+        <v>250</v>
       </c>
       <c r="D173" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="E173" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B174" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="D174" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E174" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B175" t="s">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="C175" t="s">
-        <v>574</v>
+        <v>213</v>
       </c>
       <c r="D175" t="s">
-        <v>544</v>
+        <v>214</v>
       </c>
       <c r="E175" t="s">
-        <v>617</v>
+        <v>215</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
       </c>
       <c r="G175" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B176" t="s">
-        <v>428</v>
-      </c>
-      <c r="C176" t="s">
-        <v>251</v>
+        <v>343</v>
       </c>
       <c r="D176" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="E176" t="s">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B177" t="s">
-        <v>423</v>
-      </c>
-      <c r="C177" t="s">
-        <v>236</v>
+        <v>384</v>
       </c>
       <c r="D177" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="E177" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B178" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="E178" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B179" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="D179" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="E179" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>544</v>
+      </c>
+      <c r="C180" t="s">
+        <v>544</v>
       </c>
       <c r="D180" t="s">
-        <v>137</v>
+        <v>525</v>
       </c>
       <c r="E180" t="s">
-        <v>138</v>
+        <v>570</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
       </c>
       <c r="G180" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B181" t="s">
-        <v>314</v>
+        <v>545</v>
       </c>
       <c r="C181" t="s">
-        <v>314</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
-        <v>315</v>
+        <v>526</v>
       </c>
       <c r="E181" t="s">
-        <v>316</v>
+        <v>571</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
       </c>
       <c r="G181" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B182" t="s">
-        <v>435</v>
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>125</v>
       </c>
       <c r="D182" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="E182" t="s">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>463</v>
-      </c>
-      <c r="B183" t="s">
-        <v>563</v>
-      </c>
-      <c r="C183" t="s">
-        <v>563</v>
-      </c>
-      <c r="D183" t="s">
-        <v>533</v>
-      </c>
-      <c r="E183" t="s">
-        <v>606</v>
-      </c>
-      <c r="F183" t="s">
-        <v>0</v>
-      </c>
-      <c r="G183" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>463</v>
-      </c>
-      <c r="B184" t="s">
-        <v>565</v>
-      </c>
-      <c r="C184" t="s">
-        <v>588</v>
-      </c>
-      <c r="D184" t="s">
-        <v>535</v>
-      </c>
-      <c r="E184" t="s">
-        <v>608</v>
-      </c>
-      <c r="F184" t="s">
-        <v>0</v>
-      </c>
-      <c r="G184" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>463</v>
-      </c>
-      <c r="B185" t="s">
-        <v>380</v>
-      </c>
-      <c r="C185" t="s">
-        <v>126</v>
-      </c>
-      <c r="D185" t="s">
-        <v>127</v>
-      </c>
-      <c r="E185" t="s">
-        <v>128</v>
-      </c>
-      <c r="F185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G185" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B183 B2:B152">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C183 C2:C152">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  <conditionalFormatting sqref="B2:B152">
+    <cfRule type="duplicateValues" dxfId="4" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D183 D2:D152">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  <conditionalFormatting sqref="C2:C152">
+    <cfRule type="duplicateValues" dxfId="3" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D152">
+    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D182">
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E182">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_sage_fullyoa_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="620">
   <si>
     <t>Open</t>
   </si>
@@ -1789,9 +1789,6 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/home/SJS</t>
-  </si>
-  <si>
-    <t>CC-BY</t>
   </si>
   <si>
     <t>Advanced Composites Letters</t>
@@ -1932,16 +1929,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="7">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2003,201 +2007,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2212,7 +2021,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G182" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G182"/>
   <sortState ref="A2:G182">
     <sortCondition ref="D1:D182"/>
@@ -2536,13 +2345,13 @@
         <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -2708,13 +2517,13 @@
         <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -2991,13 +2800,13 @@
         <v>462</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -3864,13 +3673,13 @@
         <v>462</v>
       </c>
       <c r="B66" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E66" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -3984,13 +3793,13 @@
         <v>462</v>
       </c>
       <c r="B72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E72" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -4437,13 +4246,13 @@
         <v>462</v>
       </c>
       <c r="B93" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E93" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -4477,13 +4286,13 @@
         <v>462</v>
       </c>
       <c r="B95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D95" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E95" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -4729,13 +4538,13 @@
         <v>462</v>
       </c>
       <c r="B107" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D107" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E107" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -5405,13 +5214,13 @@
         <v>462</v>
       </c>
       <c r="B139" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D139" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E139" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
@@ -5683,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,13 +5543,13 @@
         <v>462</v>
       </c>
       <c r="B155" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E155" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -6354,22 +6163,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B152">
-    <cfRule type="duplicateValues" dxfId="4" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C152">
-    <cfRule type="duplicateValues" dxfId="3" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D152">
-    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D182">
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E182">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
